--- a/network_analysis_sandbox/data/networking activity data.xlsx
+++ b/network_analysis_sandbox/data/networking activity data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.calhoon\Documents\Github repos\methods-corner\network_analysis_sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F84E8D1-983B-498A-8D6F-A85E627F0CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D1150-9E90-4FC4-972F-09DCFDDEDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{BB12FC28-F58B-4D9A-91BA-C7246BE4E841}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>From</t>
   </si>
@@ -45,6 +45,105 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Lauren H.</t>
+  </si>
+  <si>
+    <t>Alex W.</t>
+  </si>
+  <si>
+    <t>Erin S.</t>
+  </si>
+  <si>
+    <t>Abby B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer G. </t>
+  </si>
+  <si>
+    <t>Nate G.</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nady S. </t>
+  </si>
+  <si>
+    <t>Qazi R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazamin S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erin S. </t>
+  </si>
+  <si>
+    <t>Andy G.</t>
+  </si>
+  <si>
+    <t>Nady S.</t>
+  </si>
+  <si>
+    <t>Kyleigh P.</t>
+  </si>
+  <si>
+    <t>Nina S.</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Tim S.</t>
+  </si>
+  <si>
+    <t>Corrie</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>Haya</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Rasheedah</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Gaby</t>
+  </si>
+  <si>
+    <t>Hallie</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Chip T.</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Dave Hinkle</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Kayla</t>
   </si>
 </sst>
 </file>
@@ -396,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47293E-AEA8-4498-8278-B01F25844579}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,6 +511,576 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52">
         <v>2</v>
       </c>
     </row>

--- a/network_analysis_sandbox/data/networking activity data.xlsx
+++ b/network_analysis_sandbox/data/networking activity data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.calhoon\Documents\Github repos\methods-corner\network_analysis_sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D1150-9E90-4FC4-972F-09DCFDDEDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CCAEDC-9032-4894-94E6-BD2D447DD480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{BB12FC28-F58B-4D9A-91BA-C7246BE4E841}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{BB12FC28-F58B-4D9A-91BA-C7246BE4E841}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="66">
   <si>
     <t>From</t>
   </si>
@@ -144,6 +145,96 @@
   </si>
   <si>
     <t>Kayla</t>
+  </si>
+  <si>
+    <t>Rodeina</t>
+  </si>
+  <si>
+    <t>Naeem</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Umeda</t>
+  </si>
+  <si>
+    <t>Dhia</t>
+  </si>
+  <si>
+    <t>Megan O.</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Sandra A.</t>
+  </si>
+  <si>
+    <t>Sandra A</t>
+  </si>
+  <si>
+    <t>Dafina</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Hosna Kawusi</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Mary L.</t>
+  </si>
+  <si>
+    <t>Hosan Kawusi</t>
+  </si>
+  <si>
+    <t>Leila</t>
+  </si>
+  <si>
+    <t>Matt B.</t>
+  </si>
+  <si>
+    <t>Reda</t>
+  </si>
+  <si>
+    <t>Sean C.</t>
+  </si>
+  <si>
+    <t>Kwashi</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>Deelia</t>
+  </si>
+  <si>
+    <t>Xiara</t>
+  </si>
+  <si>
+    <t>Alix</t>
+  </si>
+  <si>
+    <t>Alec B.</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Betsy</t>
+  </si>
+  <si>
+    <t>John H.</t>
+  </si>
+  <si>
+    <t>Lauren</t>
   </si>
 </sst>
 </file>
@@ -495,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47293E-AEA8-4498-8278-B01F25844579}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C143" sqref="A1:C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,82 +808,76 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -800,32 +885,38 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -833,10 +924,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -844,10 +935,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -855,7 +946,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -866,10 +957,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -877,10 +968,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -888,10 +979,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -899,10 +990,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -910,10 +1001,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -921,10 +1012,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -932,7 +1023,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -943,7 +1034,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -954,10 +1045,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
         <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -965,10 +1056,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -976,10 +1067,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -987,7 +1078,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -998,10 +1089,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1009,10 +1100,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1020,10 +1111,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1031,10 +1122,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1042,10 +1133,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1053,10 +1144,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1064,10 +1155,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1075,13 +1166,2602 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>26</v>
       </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>59</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E678C83-D4E6-4753-80C2-7EE29543046B}">
+  <dimension ref="A1:C143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
       <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
         <v>34</v>
       </c>
-      <c r="C52">
-        <v>2</v>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>59</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
